--- a/Materia_2-PowerBi/IP - EX 16 - Trabalhando com a matematica (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 16 - Trabalhando com a matematica (Anexo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E1FD6B3-8C6A-4E4F-B1E3-85A0160637A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC769DF-BFEA-4C98-B49B-42617D8D46B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,6 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1288,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1298,7 @@
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="0.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1421,13 +1422,18 @@
         <v>13</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="17">
+        <f>I12*I10*I14</f>
+        <v>750000</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="17">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="2:18" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
@@ -1435,6 +1441,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="19"/>
       <c r="H11" s="3"/>
+      <c r="I11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
@@ -1444,13 +1453,18 @@
         <v>14</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="40">
+        <f>(I14/I10)/I12</f>
+        <v>0.03</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="19" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="2:18" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
@@ -1467,13 +1481,18 @@
         <v>15</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="17">
+        <f>I10+I12+I14</f>
+        <v>300</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="17">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="2:18" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
@@ -1487,7 +1506,10 @@
         <v>10</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="17">
+        <f>SQRT(I12)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21"/>
@@ -1501,7 +1523,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="17">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21"/>
@@ -1515,7 +1540,10 @@
         <v>17</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="17">
+        <f>I10^I12</f>
+        <v>7.8886090522101218E+169</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Materia_2-PowerBi/IP - EX 16 - Trabalhando com a matematica (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 16 - Trabalhando com a matematica (Anexo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC769DF-BFEA-4C98-B49B-42617D8D46B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0EA833-A042-4828-891D-08144A3DEF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,6 +578,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,96 +1117,96 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="29"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="29"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,24 +1230,24 @@
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="35"/>
     </row>
     <row r="10" spans="2:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -1309,102 +1309,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="24" t="str">
         <f>CONTEÚDO!B2</f>
         <v>Trabalhando com a Matemática</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="26"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="30"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
@@ -1453,7 +1453,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="40">
+      <c r="E12" s="39">
         <f>(I14/I10)/I12</f>
         <v>0.03</v>
       </c>
@@ -1558,11 +1558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
@@ -1585,13 +1588,13 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1605,10 +1608,12 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>100</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1616,7 +1621,10 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7">
+        <v>20</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1624,19 +1632,23 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="17">
+        <v>200</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="24"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17">
+        <v>300</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19"/>
@@ -1646,7 +1658,10 @@
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="40">
+        <f>290+(3*(D6^2))+(120*(D10^2)+(22*D6*(D8^2))+(0.9*D8*D10))</f>
+        <v>98884290</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
